--- a/input_spreadsheets/Bangladesh/2016Aug02/subregionSpreadsheets/Barisal.xlsx
+++ b/input_spreadsheets/Bangladesh/2016Aug02/subregionSpreadsheets/Barisal.xlsx
@@ -385,7 +385,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="80">
   <si>
     <t>indicators</t>
   </si>
@@ -622,18 +622,20 @@
   </si>
   <si>
     <t>fraction poor</t>
+  </si>
+  <si>
+    <t>fraction food insecure (not poor)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="5">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.00000"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
     <numFmt numFmtId="167" formatCode="0.000"/>
-    <numFmt numFmtId="169" formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="14" x14ac:knownFonts="1">
     <font>
@@ -810,7 +812,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -856,7 +858,11 @@
     <xf numFmtId="167" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="169" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="69">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1478,7 +1484,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+      <selection activeCell="A7" sqref="A7:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1522,7 +1528,7 @@
       <c r="A5" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="30">
         <v>0.56799999999999995</v>
       </c>
     </row>
@@ -1530,12 +1536,17 @@
       <c r="A6" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B6" s="29">
+      <c r="B6" s="31">
         <v>0.51200000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="2"/>
+      <c r="A7" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B7" s="29">
+        <v>0.20599999999999999</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/input_spreadsheets/Bangladesh/2016Aug02/subregionSpreadsheets/Barisal.xlsx
+++ b/input_spreadsheets/Bangladesh/2016Aug02/subregionSpreadsheets/Barisal.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14140" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14140" tabRatio="500" firstSheet="19" activeTab="21"/>
   </bookViews>
   <sheets>
     <sheet name="demographics" sheetId="1" r:id="rId1"/>
@@ -1483,7 +1483,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7:B7"/>
     </sheetView>
   </sheetViews>
@@ -3765,8 +3765,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3819,16 +3819,15 @@
         <v>75</v>
       </c>
       <c r="C3" s="14">
-        <f>demographics!$B$5</f>
-        <v>0.56799999999999995</v>
+        <f>demographics!$B$5 * 'Interventions target population'!$G$7</f>
+        <v>0.29081599999999996</v>
       </c>
       <c r="D3" s="14">
-        <f>demographics!$B$5</f>
-        <v>0.56799999999999995</v>
+        <f>demographics!$B$5 * 'Interventions target population'!$G$7</f>
+        <v>0.29081599999999996</v>
       </c>
       <c r="E3" s="14">
-        <f>demographics!$B$5</f>
-        <v>0.56799999999999995</v>
+        <v>0</v>
       </c>
       <c r="F3" s="14">
         <v>0</v>
